--- a/ResumeStatus.xlsx
+++ b/ResumeStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewischangsinhahn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한창신\Desktop\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C6F06-D721-7044-89B3-4E59C0D301EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28128C39-1B38-4283-9613-16E3DAE15EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2C453567-17F2-8B4B-9C7A-18ACCF3DE69E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C453567-17F2-8B4B-9C7A-18ACCF3DE69E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>업체 명</t>
   </si>
@@ -162,18 +162,29 @@
   </si>
   <si>
     <t>피씨</t>
+  </si>
+  <si>
+    <t>데브시스터즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,11 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,220 +545,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F71C2-4D4E-3748-9AC0-6D0F1F0B687A}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>